--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H2">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.784940333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N2">
-        <v>5.354820999999999</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q2">
-        <v>13.35964474118167</v>
+        <v>15.856230590156</v>
       </c>
       <c r="R2">
-        <v>120.236802670635</v>
+        <v>142.706075311404</v>
       </c>
       <c r="S2">
-        <v>0.08536618362430257</v>
+        <v>0.1149011617741719</v>
       </c>
       <c r="T2">
-        <v>0.08536618362430258</v>
+        <v>0.1149011617741719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H3">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.727147</v>
       </c>
       <c r="O3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q3">
-        <v>26.76296238593834</v>
+        <v>25.39642755389267</v>
       </c>
       <c r="R3">
-        <v>240.866661473445</v>
+        <v>228.567847985034</v>
       </c>
       <c r="S3">
-        <v>0.171011430740054</v>
+        <v>0.1840335894627746</v>
       </c>
       <c r="T3">
-        <v>0.171011430740054</v>
+        <v>0.1840335894627746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H4">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02040433333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N4">
-        <v>0.061213</v>
+        <v>5.02727</v>
       </c>
       <c r="O4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q4">
-        <v>0.1527191914616667</v>
+        <v>11.90201815532667</v>
       </c>
       <c r="R4">
-        <v>1.374472723155</v>
+        <v>107.11816339794</v>
       </c>
       <c r="S4">
-        <v>0.0009758533848646732</v>
+        <v>0.08624721403543018</v>
       </c>
       <c r="T4">
-        <v>0.0009758533848646732</v>
+        <v>0.08624721403543018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.484645</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H5">
-        <v>22.453935</v>
+        <v>24.89943</v>
       </c>
       <c r="I5">
-        <v>0.3833353856819432</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J5">
-        <v>0.3833353856819432</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.614068666666667</v>
+        <v>2.232494</v>
       </c>
       <c r="N5">
-        <v>7.842206000000001</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q5">
-        <v>19.56537597562334</v>
+        <v>18.52927602614001</v>
       </c>
       <c r="R5">
-        <v>176.08838378061</v>
+        <v>166.76348423526</v>
       </c>
       <c r="S5">
-        <v>0.1250199021434344</v>
+        <v>0.1342712147210802</v>
       </c>
       <c r="T5">
-        <v>0.1250199021434344</v>
+        <v>0.1342712147210803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.484645</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H6">
-        <v>22.453935</v>
+        <v>24.89943</v>
       </c>
       <c r="I6">
-        <v>0.3833353856819432</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J6">
-        <v>0.3833353856819432</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.020115</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N6">
-        <v>0.060345</v>
+        <v>10.727147</v>
       </c>
       <c r="O6">
-        <v>0.002509592970594532</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P6">
-        <v>0.002509592970594532</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q6">
-        <v>0.150553634175</v>
+        <v>29.67776064735667</v>
       </c>
       <c r="R6">
-        <v>1.354982707575</v>
+        <v>267.09984582621</v>
       </c>
       <c r="S6">
-        <v>0.0009620157892875485</v>
+        <v>0.215057996151627</v>
       </c>
       <c r="T6">
-        <v>0.0009620157892875485</v>
+        <v>0.2150579961516271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H7">
         <v>24.89943</v>
       </c>
       <c r="I7">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J7">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.784940333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N7">
-        <v>5.354820999999999</v>
+        <v>5.02727</v>
       </c>
       <c r="O7">
-        <v>0.2226931997744963</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P7">
-        <v>0.2226931997744963</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q7">
-        <v>14.81466562800333</v>
+        <v>13.90846193956667</v>
       </c>
       <c r="R7">
-        <v>133.33199065203</v>
+        <v>125.1761574561</v>
       </c>
       <c r="S7">
-        <v>0.09466355511942418</v>
+        <v>0.1007867807081594</v>
       </c>
       <c r="T7">
-        <v>0.09466355511942419</v>
+        <v>0.1007867807081594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>8.299809999999999</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H8">
-        <v>24.89943</v>
+        <v>0.766678</v>
       </c>
       <c r="I8">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J8">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,95 +933,95 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.575715666666667</v>
+        <v>2.232494</v>
       </c>
       <c r="N8">
-        <v>10.727147</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O8">
-        <v>0.4461143873682032</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P8">
-        <v>0.4461143873682032</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q8">
-        <v>29.67776064735667</v>
+        <v>0.5705346783106667</v>
       </c>
       <c r="R8">
-        <v>267.09984582621</v>
+        <v>5.134812104796</v>
       </c>
       <c r="S8">
-        <v>0.1896365669942405</v>
+        <v>0.004134343089778694</v>
       </c>
       <c r="T8">
-        <v>0.1896365669942405</v>
+        <v>0.004134343089778695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>8.299809999999999</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H9">
-        <v>24.89943</v>
+        <v>0.766678</v>
       </c>
       <c r="I9">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J9">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02040433333333333</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N9">
-        <v>0.061213</v>
+        <v>10.727147</v>
       </c>
       <c r="O9">
-        <v>0.002545690852746758</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P9">
-        <v>0.002545690852746758</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q9">
-        <v>0.1693520898433333</v>
+        <v>0.9138075119628889</v>
       </c>
       <c r="R9">
-        <v>1.52416880859</v>
+        <v>8.224267607666</v>
       </c>
       <c r="S9">
-        <v>0.001082135182394577</v>
+        <v>0.006621847744046233</v>
       </c>
       <c r="T9">
-        <v>0.001082135182394577</v>
+        <v>0.006621847744046234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,22 +1033,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>8.299809999999999</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H10">
-        <v>24.89943</v>
+        <v>0.766678</v>
       </c>
       <c r="I10">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J10">
-        <v>0.4250850731647057</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.614068666666667</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N10">
-        <v>7.842206000000001</v>
+        <v>5.02727</v>
       </c>
       <c r="O10">
-        <v>0.3261371290339591</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P10">
-        <v>0.3261371290339591</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q10">
-        <v>21.69627326028667</v>
+        <v>0.4282552565622221</v>
       </c>
       <c r="R10">
-        <v>195.26645934258</v>
+        <v>3.85429730906</v>
       </c>
       <c r="S10">
-        <v>0.1386360253571275</v>
+        <v>0.003103324351592394</v>
       </c>
       <c r="T10">
-        <v>0.1386360253571276</v>
+        <v>0.003103324351592395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.299809999999999</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H11">
-        <v>24.89943</v>
+        <v>4.177937</v>
       </c>
       <c r="I11">
-        <v>0.4250850731647057</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J11">
-        <v>0.4250850731647057</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.020115</v>
+        <v>2.232494</v>
       </c>
       <c r="N11">
-        <v>0.060345</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O11">
-        <v>0.002509592970594532</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P11">
-        <v>0.002509592970594532</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q11">
-        <v>0.16695067815</v>
+        <v>3.109073094959334</v>
       </c>
       <c r="R11">
-        <v>1.50255610335</v>
+        <v>27.981657854634</v>
       </c>
       <c r="S11">
-        <v>0.001066790511518808</v>
+        <v>0.02252969951593855</v>
       </c>
       <c r="T11">
-        <v>0.001066790511518808</v>
+        <v>0.02252969951593855</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.493317</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H12">
-        <v>1.479951</v>
+        <v>4.177937</v>
       </c>
       <c r="I12">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J12">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.784940333333333</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N12">
-        <v>5.354820999999999</v>
+        <v>10.727147</v>
       </c>
       <c r="O12">
-        <v>0.2226931997744963</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P12">
-        <v>0.2226931997744963</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q12">
-        <v>0.8805414104189999</v>
+        <v>4.979704928415445</v>
       </c>
       <c r="R12">
-        <v>7.924872693770999</v>
+        <v>44.817344355739</v>
       </c>
       <c r="S12">
-        <v>0.005626531332747253</v>
+        <v>0.03608511356556115</v>
       </c>
       <c r="T12">
-        <v>0.005626531332747254</v>
+        <v>0.03608511356556115</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.493317</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H13">
-        <v>1.479951</v>
+        <v>4.177937</v>
       </c>
       <c r="I13">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J13">
-        <v>0.02526584259620318</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.575715666666667</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N13">
-        <v>10.727147</v>
+        <v>5.02727</v>
       </c>
       <c r="O13">
-        <v>0.4461143873682032</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P13">
-        <v>0.4461143873682032</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q13">
-        <v>1.763961325533</v>
+        <v>2.333735260221111</v>
       </c>
       <c r="R13">
-        <v>15.875651929797</v>
+        <v>21.00361734199</v>
       </c>
       <c r="S13">
-        <v>0.01127145589114663</v>
+        <v>0.01691126343982594</v>
       </c>
       <c r="T13">
-        <v>0.01127145589114664</v>
+        <v>0.01691126343982595</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.493317</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H14">
-        <v>1.479951</v>
+        <v>3.419914</v>
       </c>
       <c r="I14">
-        <v>0.02526584259620318</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J14">
-        <v>0.02526584259620318</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02040433333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N14">
-        <v>0.061213</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O14">
-        <v>0.002545690852746758</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P14">
-        <v>0.002545690852746758</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q14">
-        <v>0.010065804507</v>
+        <v>2.544979161838667</v>
       </c>
       <c r="R14">
-        <v>0.090592240563</v>
+        <v>22.904812456548</v>
       </c>
       <c r="S14">
-        <v>6.431902438409383E-05</v>
+        <v>0.01844202887462196</v>
       </c>
       <c r="T14">
-        <v>6.431902438409383E-05</v>
+        <v>0.01844202887462197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.493317</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H15">
-        <v>1.479951</v>
+        <v>3.419914</v>
       </c>
       <c r="I15">
-        <v>0.02526584259620318</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J15">
-        <v>0.02526584259620318</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.614068666666667</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N15">
-        <v>7.842206000000001</v>
+        <v>10.727147</v>
       </c>
       <c r="O15">
-        <v>0.3261371290339591</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P15">
-        <v>0.3261371290339591</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q15">
-        <v>1.289564512434</v>
+        <v>4.076213356150889</v>
       </c>
       <c r="R15">
-        <v>11.606080611906</v>
+        <v>36.685920205358</v>
       </c>
       <c r="S15">
-        <v>0.008240129366949617</v>
+        <v>0.02953801961936058</v>
       </c>
       <c r="T15">
-        <v>0.008240129366949617</v>
+        <v>0.02953801961936059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.493317</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H16">
-        <v>1.479951</v>
+        <v>3.419914</v>
       </c>
       <c r="I16">
-        <v>0.02526584259620318</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J16">
-        <v>0.02526584259620318</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.020115</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N16">
-        <v>0.060345</v>
+        <v>5.02727</v>
       </c>
       <c r="O16">
-        <v>0.002509592970594532</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P16">
-        <v>0.002509592970594532</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q16">
-        <v>0.009923071455</v>
+        <v>1.910314561642222</v>
       </c>
       <c r="R16">
-        <v>0.089307643095</v>
+        <v>17.19283105478</v>
       </c>
       <c r="S16">
-        <v>6.340698097557941E-05</v>
+        <v>0.01384297240373632</v>
       </c>
       <c r="T16">
-        <v>6.340698097557941E-05</v>
+        <v>0.01384297240373632</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.042122</v>
+        <v>0.248809</v>
       </c>
       <c r="H17">
-        <v>6.126365999999999</v>
+        <v>0.746427</v>
       </c>
       <c r="I17">
-        <v>0.1045898134753994</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J17">
-        <v>0.1045898134753994</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.784940333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N17">
-        <v>5.354820999999999</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O17">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P17">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q17">
-        <v>3.645065923387332</v>
+        <v>0.555464599646</v>
       </c>
       <c r="R17">
-        <v>32.80559331048599</v>
+        <v>4.999181396814</v>
       </c>
       <c r="S17">
-        <v>0.02329144022665443</v>
+        <v>0.004025138727698254</v>
       </c>
       <c r="T17">
-        <v>0.02329144022665444</v>
+        <v>0.004025138727698254</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.042122</v>
+        <v>0.248809</v>
       </c>
       <c r="H18">
-        <v>6.126365999999999</v>
+        <v>0.746427</v>
       </c>
       <c r="I18">
-        <v>0.1045898134753994</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J18">
-        <v>0.1045898134753994</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,828 +1559,84 @@
         <v>10.727147</v>
       </c>
       <c r="O18">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P18">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q18">
-        <v>7.302047628644666</v>
+        <v>0.8896702393076666</v>
       </c>
       <c r="R18">
-        <v>65.71842865780199</v>
+        <v>8.007032153769</v>
       </c>
       <c r="S18">
-        <v>0.04665902056353246</v>
+        <v>0.006446938540097926</v>
       </c>
       <c r="T18">
-        <v>0.04665902056353247</v>
+        <v>0.006446938540097926</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.042122</v>
+        <v>0.248809</v>
       </c>
       <c r="H19">
-        <v>6.126365999999999</v>
+        <v>0.746427</v>
       </c>
       <c r="I19">
-        <v>0.1045898134753994</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J19">
-        <v>0.1045898134753994</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02040433333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N19">
-        <v>0.061213</v>
+        <v>5.02727</v>
       </c>
       <c r="O19">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P19">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q19">
-        <v>0.04166813799533332</v>
+        <v>0.4169433404766666</v>
       </c>
       <c r="R19">
-        <v>0.3750132419579999</v>
+        <v>3.752490064289999</v>
       </c>
       <c r="S19">
-        <v>0.0002662533314548139</v>
+        <v>0.003021353274498624</v>
       </c>
       <c r="T19">
-        <v>0.0002662533314548139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.042122</v>
-      </c>
-      <c r="H20">
-        <v>6.126365999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.1045898134753994</v>
-      </c>
-      <c r="J20">
-        <v>0.1045898134753994</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N20">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P20">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q20">
-        <v>5.338247133710666</v>
-      </c>
-      <c r="R20">
-        <v>48.044224203396</v>
-      </c>
-      <c r="S20">
-        <v>0.03411062149306406</v>
-      </c>
-      <c r="T20">
-        <v>0.03411062149306407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.042122</v>
-      </c>
-      <c r="H21">
-        <v>6.126365999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.1045898134753994</v>
-      </c>
-      <c r="J21">
-        <v>0.1045898134753994</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.020115</v>
-      </c>
-      <c r="N21">
-        <v>0.060345</v>
-      </c>
-      <c r="O21">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P21">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q21">
-        <v>0.04107728402999999</v>
-      </c>
-      <c r="R21">
-        <v>0.3696955562699999</v>
-      </c>
-      <c r="S21">
-        <v>0.0002624778606936557</v>
-      </c>
-      <c r="T21">
-        <v>0.0002624778606936557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.9279860000000001</v>
-      </c>
-      <c r="H22">
-        <v>2.783958</v>
-      </c>
-      <c r="I22">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="J22">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.784940333333333</v>
-      </c>
-      <c r="N22">
-        <v>5.354820999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="P22">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="Q22">
-        <v>1.656399640168667</v>
-      </c>
-      <c r="R22">
-        <v>14.907596761518</v>
-      </c>
-      <c r="S22">
-        <v>0.01058415239156727</v>
-      </c>
-      <c r="T22">
-        <v>0.01058415239156728</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.9279860000000001</v>
-      </c>
-      <c r="H23">
-        <v>2.783958</v>
-      </c>
-      <c r="I23">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="J23">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.575715666666667</v>
-      </c>
-      <c r="N23">
-        <v>10.727147</v>
-      </c>
-      <c r="O23">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="P23">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="Q23">
-        <v>3.318214078647334</v>
-      </c>
-      <c r="R23">
-        <v>29.863926707826</v>
-      </c>
-      <c r="S23">
-        <v>0.02120290455549191</v>
-      </c>
-      <c r="T23">
-        <v>0.02120290455549191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.9279860000000001</v>
-      </c>
-      <c r="H24">
-        <v>2.783958</v>
-      </c>
-      <c r="I24">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="J24">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02040433333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.061213</v>
-      </c>
-      <c r="O24">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="P24">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="Q24">
-        <v>0.01893493567266667</v>
-      </c>
-      <c r="R24">
-        <v>0.170414421054</v>
-      </c>
-      <c r="S24">
-        <v>0.0001209914804519157</v>
-      </c>
-      <c r="T24">
-        <v>0.0001209914804519157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.9279860000000001</v>
-      </c>
-      <c r="H25">
-        <v>2.783958</v>
-      </c>
-      <c r="I25">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="J25">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N25">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P25">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q25">
-        <v>2.425819125705334</v>
-      </c>
-      <c r="R25">
-        <v>21.832372131348</v>
-      </c>
-      <c r="S25">
-        <v>0.01550063081288118</v>
-      </c>
-      <c r="T25">
-        <v>0.01550063081288119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.9279860000000001</v>
-      </c>
-      <c r="H26">
-        <v>2.783958</v>
-      </c>
-      <c r="I26">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="J26">
-        <v>0.04752795506232343</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.020115</v>
-      </c>
-      <c r="N26">
-        <v>0.060345</v>
-      </c>
-      <c r="O26">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P26">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q26">
-        <v>0.01866643839</v>
-      </c>
-      <c r="R26">
-        <v>0.16799794551</v>
-      </c>
-      <c r="S26">
-        <v>0.0001192758219311397</v>
-      </c>
-      <c r="T26">
-        <v>0.0001192758219311397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.831529</v>
-      </c>
-      <c r="I27">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J27">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.784940333333333</v>
-      </c>
-      <c r="N27">
-        <v>5.354820999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="P27">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="Q27">
-        <v>0.494743216812111</v>
-      </c>
-      <c r="R27">
-        <v>4.452688951308999</v>
-      </c>
-      <c r="S27">
-        <v>0.003161337079800609</v>
-      </c>
-      <c r="T27">
-        <v>0.003161337079800609</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.831529</v>
-      </c>
-      <c r="I28">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J28">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>3.575715666666667</v>
-      </c>
-      <c r="N28">
-        <v>10.727147</v>
-      </c>
-      <c r="O28">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="P28">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="Q28">
-        <v>0.9911037575292222</v>
-      </c>
-      <c r="R28">
-        <v>8.919933817763001</v>
-      </c>
-      <c r="S28">
-        <v>0.006333008623737725</v>
-      </c>
-      <c r="T28">
-        <v>0.006333008623737726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.831529</v>
-      </c>
-      <c r="I29">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J29">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.02040433333333333</v>
-      </c>
-      <c r="N29">
-        <v>0.061213</v>
-      </c>
-      <c r="O29">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="P29">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="Q29">
-        <v>0.005655598297444444</v>
-      </c>
-      <c r="R29">
-        <v>0.050900384677</v>
-      </c>
-      <c r="S29">
-        <v>3.613844919668364E-05</v>
-      </c>
-      <c r="T29">
-        <v>3.613844919668364E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.831529</v>
-      </c>
-      <c r="I30">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J30">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N30">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P30">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q30">
-        <v>0.7245579681082222</v>
-      </c>
-      <c r="R30">
-        <v>6.521021712974</v>
-      </c>
-      <c r="S30">
-        <v>0.004629819860502305</v>
-      </c>
-      <c r="T30">
-        <v>0.004629819860502306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.831529</v>
-      </c>
-      <c r="I31">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J31">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.020115</v>
-      </c>
-      <c r="N31">
-        <v>0.060345</v>
-      </c>
-      <c r="O31">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P31">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q31">
-        <v>0.005575401945</v>
-      </c>
-      <c r="R31">
-        <v>0.050178617505</v>
-      </c>
-      <c r="S31">
-        <v>3.562600618780119E-05</v>
-      </c>
-      <c r="T31">
-        <v>3.562600618780119E-05</v>
+        <v>0.003021353274498624</v>
       </c>
     </row>
   </sheetData>
